--- a/Data Files/DataDrivenTesting.xlsx
+++ b/Data Files/DataDrivenTesting.xlsx
@@ -28,14 +28,14 @@
     <t>mosajgohar2</t>
   </si>
   <si>
-    <t>Mayesha@1</t>
+    <t>Mayesha@2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,14 +47,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
